--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -626,27 +626,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/artfynd/A 52946-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/artfynd/A 52946-2018.xlsx", "A 52946-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/kartor/A 52946-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/kartor/A 52946-2018.png", "A 52946-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomål/A 52946-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomål/A 52946-2018.docx", "A 52946-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomålsmail/A 52946-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomålsmail/A 52946-2018.docx", "A 52946-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsyn/A 52946-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsyn/A 52946-2018.docx", "A 52946-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsynsmail/A 52946-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsynsmail/A 52946-2018.docx", "A 52946-2018")</f>
         <v/>
       </c>
     </row>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -711,27 +711,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/artfynd/A 21769-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/artfynd/A 21769-2023.xlsx", "A 21769-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/kartor/A 21769-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/kartor/A 21769-2023.png", "A 21769-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomål/A 21769-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomål/A 21769-2023.docx", "A 21769-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomålsmail/A 21769-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/klagomålsmail/A 21769-2023.docx", "A 21769-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsyn/A 21769-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsyn/A 21769-2023.docx", "A 21769-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsynsmail/A 21769-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOLVESBORG/tillsynsmail/A 21769-2023.docx", "A 21769-2023")</f>
         <v/>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="R43" s="2" t="inlineStr"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
           <t>A 39654-2023</t>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3076,6 +3076,63 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>A 46500-2023</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>45197</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BLEKINGE LÄN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SÖLVESBORG</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>

--- a/Översikt SÖLVESBORG.xlsx
+++ b/Översikt SÖLVESBORG.xlsx
@@ -572,7 +572,7 @@
         <v>43389</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         <v>45065</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         <v>43326</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         <v>43438</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>43593</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>43766</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>43885</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>43910</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>43974</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44140</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44253</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44355</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         <v>44355</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1429,7 +1429,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         <v>44356</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>44365</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44368</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>44382</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>44488</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>44509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>44571</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44616</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>44622</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>44623</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>44641</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>44641</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         <v>44642</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44642</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>44669</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44945</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44973</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44974</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44983</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>45053</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>45089</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>45092</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>45103</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>45166</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>45197</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
